--- a/src/main/resources/Avengers최종산출물1.1/개발/A_분석/Avengers요구사항정의서_v0.2 공통&관리.xlsx
+++ b/src/main/resources/Avengers최종산출물1.1/개발/A_분석/Avengers요구사항정의서_v0.2 공통&관리.xlsx
@@ -31,478 +31,478 @@
     <x:t>관리자가 관리하는 게시판으로 학사일정에 관한 내용을 볼 수 있다. 테이블형식의 게시판으로 제목을 클릭시 팝업으로 해당하는 글내용을 볼 수 있다.</x:t>
   </x:si>
   <x:si>
+    <x:t>등록금고지서확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멘토링 내역조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017.06.28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진영, 조영훈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Help Desk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017.06.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구사항 상세내역 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>V0.3버전 통합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배현상, 표혜진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강평가를 입력할 수 있다. 크게 강의진행,학업성취,건의사항으로 나뉘며 각항목은 5점만점으로 채점한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">로그인을 했을 때, 자동으로 로그아웃되기까지 남은시간을 표시한다. 30분이 지나면 자동 로그아웃이된다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 교수를 조회한다.(교수번호, 이름, 소속학과) 조회결과로 나온 교수정보를 수정 및 삭제할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장학금을 신청할 수 있다. 장학금명,성적,성명,학과,학년,학번,주소,주민등록번호,나이,신청사유가 필요하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록된 학생을 조회한다(학번, 이름, 소속학과) 조회결과로 나온 학생정보를 수정 및 삭제할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃버튼을 눌렀을 때, 로그아웃이 완료된다. 로그인 화면으로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의계획서를 조회시에 강의번호,강의명,교수,교수연락처,강의실,교양/전공/교필여부,개설학년,학습내용,학습평가 방법,주요교재를 확인할수있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멘티로 등록된 학생명단을 조회할 수 있다. 클릭 시 학번, 성명, 학과, 상담횟수, 마지막 멘토활동 날짜, 상담내용 등을 조회할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 버튼 클릭시 입력및 수정,출력을 할수있다. 크게 프로그램,경진/공모,학습동아리,장학/포상/입상으로 나뉘며 프로그램(대회)명,시행기관,시작일자,종료일자,수료(참여)현황을 보여주어야한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생/교수/관리자가 자신의 ID를 잊어버렸을 때, 사용되는 기능으로 활성화시 팝업창이 뜬다. 이름, 생년월일, 가입된 이메일을 입력하면 이메일로 아이디가 전송된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자가 관리하는 게시판으로 학사관리시스템에 관한 이슈 및 관리자의 공지사항을 볼수있다. 테이블형식의 게시판으로 제목을 클릭시 팝업으로 해당 글내용을 볼수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록금 고지서를 출력할 수 있다. 납입확인가능하며 납입완료한 사람은 교육비 납입 증명서를 출력할 수 있다. 기본적으로 학과,학번,성명,주민등록번호,등록금,계좌를 보여준다.  관리자의 경우 발급하고자하는 자의 개인정보를 입력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자퇴신청을 할 수 있다. 자퇴 신청시에는 학과,학번,학년,생년월일,성명,연락처,보호자성명,관계,보호자 연락처,주소,자퇴사유,면담내용이 필요하다. 이후 관리자의 승인이 떨어져야 신청이 완료된다. 기간에따라 활성화/비활성화된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수는 현재 강의하고 있는 과목에 대해 강의계획서에 명시한 학점결정비율을 토대로 학생들의 학점을 등록할 수 있다. 학점 등록 시, 출석률, 과제점수, 시험점수, 총점 등을 입력하여야 한다. 수정은 상세보기 화면에서만 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴학신청을 할 수 있다. 휴학의 종류로는 일반휴학,군휴학,육아휴학이 있으며 종류에따라 최대기간이 다르다. 신청후에 최종적으로 지도교수와 관리자의 승인이 떨어져야 신청이완료된다. 기간에따라 활성화/비활성화된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학기 수강과목, 계절학기 일정등 학생들이 전반적인 학과소식을 확인해 볼 수 있는 게시판으로 해당제목을 클릭하면 팝업창을 통해  학생들이 확인할 수 있고 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사일정을 조회할 수 있다. 기본적으로 달력형태로 나타나며 각 달마다 나누어서 표기한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자이름이 표시된다. 개인정보조회 아이콘을 통해서 관리자의 개인정보를 수정할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교주소에 대한 정보가 적혀있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수인원을 학과별로 구분하여 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시간표 조회시에는 기본적으로 pdf화면으로 보여지며 이를 엑셀로 저장,출력 가능하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대학교로고를 클릭하면 로그인된 학생/교수/관리자에 해당하는 메인페이지로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 강의를 등록한다 (과목, 시간/요일, 강의실, 강의교수, 전공/교양, 학점)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 학생을 등록한다.(학번, 이름, 학력, 소속학과, 주소, 연락처, 사진 )</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 교수를 등록한다. (교수번호, 이름, 전공, 연락처, 주소, 사진, 소속학과)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록금 분할납부신청을 할 수 있다. 학과,학년,학번,성명,연락처 , 분할 납부기간(최대4차),납부금액,수납계좌를 입력,조회할수있다. 이후 관리자가 승인시에 최종적으로 처리된다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>상담예약을 조회/신청할 수 있다. 기본적으로 달력형태로 나타나며 원하는 날짜를 클릭시에 해당 날짜에 상담가능한 시간대,교수명이 나오고 다시한번 해당항목을 클릭시에 상담내용,상담신청제목,연락처를 입력한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>수강신청일정, 취업소식 등 전체 학사일정을 학생들이 확인할 수 있는 게시판으로  해당제목을 클릭하면 팝업창을 통해  학생들이 확인할 수 있고 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포털시스템 사용에 관한 공지사항 및 일정 등을 학생이 포털소식 게시판을 통해 확인 할 수 있고  해당제목을 클릭하면 팝업창으로 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>○</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이진영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내 용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멘토링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수는 자기 과목에 대한 강의계획서를 등록 및 조회할 수 있다. 등록 시 과목명, 해당교수, 강의시간, 강의요약내용, 학점결정비율, 전화번호 등을 기입하여 등록하도록 한다. 조회 시에는 자신의 과목에 대한 강의계획서만 조회가 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학적에 관한 증명서 발급이나 학점과 관련된 자주묻는 질문을 게시판에서 확인 할 수 있고 해당 글을 클릭하면 해당질문에 대한 답변을 바로 확인 할 수 있다. 원하는 질문을 카테고리별(하이포털,졸업유보,전공배정 등)로 제목이나 내용으로 검색해 볼 수 있고 체크박스로 항목을 체크해서 확인 할 수도 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복학신청을 할 수 있다.복학 신청시에는 학과,학번,학년,생년월일,전화번호,성명,주소,휴학기간,사유가 필요하다. 이후에는 바로 등록금납부로 안내될수있도록한다. 기간에따라 활성화/비활성화된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수는 현재 강의하고 있는 과목에 대한 과제를 등록 및 수정, 삭제, 조회할 수 있다.  등록 시 과목명, 과제명, 교수명, 제출날짜, 제출양식등을 작성하여 등록하도록 한다. 조회 시에는 자신의 과목에 대한 조회만 가능하며, 수정과 삭제는 상세보기 화면에서만 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재학,졸업,성적,재적증명서를 발급(국문,영문)받을 수 있다. 발급받기전 다시한번 본인확인을 받고 본인의 학적정보(학과,전공,학년,학적상태,학번,이름)를 보여준다. 이후에 각 증명서의 수량을 버튼으로 추가하고 발급받는다. 관리자의 경우 발급하고자하는 자의 개인정보를 입력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수는 현재 강의하고 있는 과목에 대한 학생의 출결을 관리할 수 있다. 교수는 출석/결석을 체크하여 학생의 출결을 결정할 수 있고, 학번, 과목명, 출석/결석을 검색조건으로 하여 검색이 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생과 교수 Help Desk의 게시판을 관리하는 페이지로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의등록, 조회, 수정, 삭제 기능이 있는 강의관리 페이지로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장학이력조회를 할 수 있다. 기본적으로 장학금명과 장학금액이 표기된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수등록, 조회, 수정, 삭제 기능이 있는 교수관리 페이지로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당일 수업시간표를 메모형식으로 보여준다. 시간,강의실,강의명이 표기된다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생등록, 조회, 수정, 삭제 기능이 있는 학생관리 페이지로 이동한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생/교수/관리자가 자신의 비밀번호를 잊어버렸을 때, 사용되는 기능으로 활성화시 팝업창이 뜬다. 아이디와 가입된 이메일을 입력하면 이메일로 새로운 비밀번호가 전송된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성적조회를 할 수 있다. 처음조회시 기본적으로 현재학기성적이 자동으로 조회되며 과목번호,학과명,학기,이수구분,학점,과목명,등급이 나와야한다. 년도와 학기를 검색할수있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담요청이 등록된 학생의 학과, 학번, 이름, 연락처, 상담시간, 상담완료여부등을 검색/조회할 수 있다. 클릭시 상세페이지에서 상담내용, 상담요청내역까지 조회할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포털소식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학과공지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시험관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의계획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인정보찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세내역 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교공지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V0.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수부분 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생부분 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록금분할신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담&amp;멘토링</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이보라, 배진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사관련정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서개정이력표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학적관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성적관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장학관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상담예약신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증명서발급메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>교수조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남은시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수업관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과제관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구사항정의서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공통화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HEADER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FOOTER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호찾기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생 메인화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출결관리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사관리시스템</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강꾸러미</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근로장학생을 신청할 수 있다. 학과,성명,학번,학년,연락처,직전학기 성적,직전학기 장학금명,장학금 금액,신청사유가 필요하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자가 관리하는 게시판으로 학교에 관한 이슈 및 공지사항을 볼 수 있다. 테이블형식의 게시판으로 제목을 클릭시 팝업으로 해당하는 글내용을 볼 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자&amp; 공통부분 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최초제정 &amp; 내용 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학사관리시스템 포탈의 각종소식을 조회할수있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">연장버튼을 눌렀을 때, 남은시간이 30분으로 된다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>재학생수, 휴학생수, 신입생수를 구분하여 보여준다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>현학기에 수강중인 강의목록을 보여준다. 년도,학기,강의명을 보여준다 해당 항목을 클릭하면 강의계획서를 보여준다.</x:t>
   </x:si>
   <x:si>
-    <x:t>강의계획서를 조회시에 강의번호,강의명,교수,교수연락처,강의실,교양/전공/교필여부,개설학년,학습내용,학습평가 방법,주요교재를 확인할수있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멘티로 등록된 학생명단을 조회할 수 있다. 클릭 시 학번, 성명, 학과, 상담횟수, 마지막 멘토활동 날짜, 상담내용 등을 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강평가를 입력할 수 있다. 크게 강의진행,학업성취,건의사항으로 나뉘며 각항목은 5점만점으로 채점한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">로그인을 했을 때, 자동으로 로그아웃되기까지 남은시간을 표시한다. 30분이 지나면 자동 로그아웃이된다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 교수를 조회한다.(교수번호, 이름, 소속학과) 조회결과로 나온 교수정보를 수정 및 삭제할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장학금을 신청할 수 있다. 장학금명,성적,성명,학과,학년,학번,주소,주민등록번호,나이,신청사유가 필요하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록된 학생을 조회한다(학번, 이름, 소속학과) 조회결과로 나온 학생정보를 수정 및 삭제할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃버튼을 눌렀을 때, 로그아웃이 완료된다. 로그인 화면으로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록금 분할납부신청을 할 수 있다. 학과,학년,학번,성명,연락처 , 분할 납부기간(최대4차),납부금액,수납계좌를 입력,조회할수있다. 이후 관리자가 승인시에 최종적으로 처리된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수는 현재 강의하고 있는 과목에 대한 학생의 출결을 관리할 수 있다. 교수는 출석/결석을 체크하여 학생의 출결을 결정할 수 있고, 학번, 과목명, 출석/결석을 검색조건으로 하여 검색이 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 버튼 클릭시 입력및 수정,출력을 할수있다. 크게 프로그램,경진/공모,학습동아리,장학/포상/입상으로 나뉘며 프로그램(대회)명,시행기관,시작일자,종료일자,수료(참여)현황을 보여주어야한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강신청일정, 취업소식 등 전체 학사일정을 학생들이 확인할 수 있는 게시판으로  해당제목을 클릭하면 팝업창을 통해  학생들이 확인할 수 있고 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
+    <x:t xml:space="preserve">등록된 강의를 조회한다(과목, 시간/요일, 강의실, 강의교수, 전공/교양) 조회결과로 나온 강의정보를 수정 및 삭제할 수 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생이름,소속과,학년,학적상태가 보여진다. 기본적으로 자동로그아웃 시간은 30분이며 연장버튼으로 다시 30분으로 초기화가 가능하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 학생이 신청한 상담현황을 보여준다.상담제목,교수명,시간,상담여부를 보여주고 해당목록을 클릭하면 상세페이지(상담조회)로 이동한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사전 신청기간에는 수강신청과목을 꾸러미에 담거나 뺄 수 있지만 본 신청 기간에는 장바구니에 담겨있는 과목에 대해 신청만 가능하다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">수강신청에 관한 전반적인 안내, 변동사항을 공지하는 게시판으로 해당내용을 클릭하면 학생은 상세페이지를 팝업으로 확인 할 수 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보를 조회할 수 있다. 개인정보는  학생의 경우조회만 가능한것에 학생사진,학번,이름(영어이름포함),단과대학,현재학과,학년,학적상태,주민번호,성별이있다. 변경가능한것에 계좌번호,은행명,예금주,주소명,우편번호,이메일,집전화,이동전화,보호자정보 일체가 있다. 관리자는 모든정보를 변경가능하다.</x:t>
   </x:si>
   <x:si>
     <x:t>교수는 현재 강의하고 있는 과목에 대한 시험을 등록 및 수정, 삭제, 조회할 수 있다. 등록 시 날짜, 시험시간, 문제등을 작성하여 등록하도록 한다. 조회 시에는 자신의 시험에 대한 조회만 가능하며, 수정과 삭제는 상세보기 화면에서만 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생/교수/관리자가 자신의 ID를 잊어버렸을 때, 사용되는 기능으로 활성화시 팝업창이 뜬다. 이름, 생년월일, 가입된 이메일을 입력하면 이메일로 아이디가 전송된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자가 관리하는 게시판으로 학사관리시스템에 관한 이슈 및 관리자의 공지사항을 볼수있다. 테이블형식의 게시판으로 제목을 클릭시 팝업으로 해당 글내용을 볼수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수는 현재 강의하고 있는 과목에 대해 강의계획서에 명시한 학점결정비율을 토대로 학생들의 학점을 등록할 수 있다. 학점 등록 시, 출석률, 과제점수, 시험점수, 총점 등을 입력하여야 한다. 수정은 상세보기 화면에서만 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자퇴신청을 할 수 있다. 자퇴 신청시에는 학과,학번,학년,생년월일,성명,연락처,보호자성명,관계,보호자 연락처,주소,자퇴사유,면담내용이 필요하다. 이후 관리자의 승인이 떨어져야 신청이 완료된다. 기간에따라 활성화/비활성화된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록금 고지서를 출력할 수 있다. 납입확인가능하며 납입완료한 사람은 교육비 납입 증명서를 출력할 수 있다. 기본적으로 학과,학번,성명,주민등록번호,등록금,계좌를 보여준다.  관리자의 경우 발급하고자하는 자의 개인정보를 입력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복학신청을 할 수 있다.복학 신청시에는 학과,학번,학년,생년월일,전화번호,성명,주소,휴학기간,사유가 필요하다. 이후에는 바로 등록금납부로 안내될수있도록한다. 기간에따라 활성화/비활성화된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수는 현재 강의하고 있는 과목에 대한 과제를 등록 및 수정, 삭제, 조회할 수 있다.  등록 시 과목명, 과제명, 교수명, 제출날짜, 제출양식등을 작성하여 등록하도록 한다. 조회 시에는 자신의 과목에 대한 조회만 가능하며, 수정과 삭제는 상세보기 화면에서만 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재학,졸업,성적,재적증명서를 발급(국문,영문)받을 수 있다. 발급받기전 다시한번 본인확인을 받고 본인의 학적정보(학과,전공,학년,학적상태,학번,이름)를 보여준다. 이후에 각 증명서의 수량을 버튼으로 추가하고 발급받는다. 관리자의 경우 발급하고자하는 자의 개인정보를 입력한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴학신청을 할 수 있다. 휴학의 종류로는 일반휴학,군휴학,육아휴학이 있으며 종류에따라 최대기간이 다르다. 신청후에 최종적으로 지도교수와 관리자의 승인이 떨어져야 신청이완료된다. 기간에따라 활성화/비활성화된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학기 수강과목, 계절학기 일정등 학생들이 전반적인 학과소식을 확인해 볼 수 있는 게시판으로 해당제목을 클릭하면 팝업창을 통해  학생들이 확인할 수 있고 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자이름이 표시된다. 개인정보조회 아이콘을 통해서 관리자의 개인정보를 수정할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사일정을 조회할 수 있다. 기본적으로 달력형태로 나타나며 각 달마다 나누어서 표기한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생과 교수 Help Desk의 게시판을 관리하는 페이지로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생등록, 조회, 수정, 삭제 기능이 있는 학생관리 페이지로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수등록, 조회, 수정, 삭제 기능이 있는 교수관리 페이지로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장학이력조회를 할 수 있다. 기본적으로 장학금명과 장학금액이 표기된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의등록, 조회, 수정, 삭제 기능이 있는 강의관리 페이지로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당일 수업시간표를 메모형식으로 보여준다. 시간,강의실,강의명이 표기된다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 교수를 등록한다. (교수번호, 이름, 전공, 연락처, 주소, 사진, 소속학과)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 학생을 등록한다.(학번, 이름, 학력, 소속학과, 주소, 연락처, 사진 )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 강의를 등록한다 (과목, 시간/요일, 강의실, 강의교수, 전공/교양, 학점)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대학교로고를 클릭하면 로그인된 학생/교수/관리자에 해당하는 메인페이지로 이동한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시간표 조회시에는 기본적으로 pdf화면으로 보여지며 이를 엑셀로 저장,출력 가능하다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포털시스템 사용에 관한 공지사항 및 일정 등을 학생이 포털소식 게시판을 통해 확인 할 수 있고  해당제목을 클릭하면 팝업창으로 상세내용은 제목 및 작성자, 첨부파일, 조회수를 포함한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항정의서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사일정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장학관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구사항ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성적관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학적관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서개정이력표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배현상, 표혜진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V0.3버전 통합</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>○</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내 용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승인자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진영</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구사항 상세내역 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017.06.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Help Desk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멘토링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">등록된 강의를 조회한다(과목, 시간/요일, 강의실, 강의교수, 전공/교양) 조회결과로 나온 강의정보를 수정 및 삭제할 수 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생이름,소속과,학년,학적상태가 보여진다. 기본적으로 자동로그아웃 시간은 30분이며 연장버튼으로 다시 30분으로 초기화가 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 학생이 신청한 상담현황을 보여준다.상담제목,교수명,시간,상담여부를 보여주고 해당목록을 클릭하면 상세페이지(상담조회)로 이동한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수는 자기 과목에 대한 강의계획서를 등록 및 조회할 수 있다. 등록 시 과목명, 해당교수, 강의시간, 강의요약내용, 학점결정비율, 전화번호 등을 기입하여 등록하도록 한다. 조회 시에는 자신의 과목에 대한 강의계획서만 조회가 가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성적조회를 할 수 있다. 처음조회시 기본적으로 현재학기성적이 자동으로 조회되며 과목번호,학과명,학기,이수구분,학점,과목명,등급이 나와야한다. 년도와 학기를 검색할수있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생/교수/관리자가 자신의 비밀번호를 잊어버렸을 때, 사용되는 기능으로 활성화시 팝업창이 뜬다. 아이디와 가입된 이메일을 입력하면 이메일로 새로운 비밀번호가 전송된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담요청이 등록된 학생의 학과, 학번, 이름, 연락처, 상담시간, 상담완료여부등을 검색/조회할 수 있다. 클릭시 상세페이지에서 상담내용, 상담요청내역까지 조회할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자가 관리하는 게시판으로 학교에 관한 이슈 및 공지사항을 볼 수 있다. 테이블형식의 게시판으로 제목을 클릭시 팝업으로 해당하는 글내용을 볼 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최초제정 &amp; 내용 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자&amp; 공통부분 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이진영, 조영훈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017.06.28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멘토링 내역조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사관리시스템 포탈의 각종소식을 조회할수있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재학생수, 휴학생수, 신입생수를 구분하여 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">연장버튼을 눌렀을 때, 남은시간이 30분으로 된다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사관련정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이보라, 배진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V0.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V0.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V0.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담&amp;멘토링</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생부분 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수부분 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근로장학생을 신청할 수 있다. 학과,성명,학번,학년,연락처,직전학기 성적,직전학기 장학금명,장학금 금액,신청사유가 필요하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보를 조회할 수 있다. 개인정보는  학생의 경우조회만 가능한것에 학생사진,학번,이름(영어이름포함),단과대학,현재학과,학년,학적상태,주민번호,성별이있다. 변경가능한것에 계좌번호,은행명,예금주,주소명,우편번호,이메일,집전화,이동전화,보호자정보 일체가 있다. 관리자는 모든정보를 변경가능하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교주소에 대한 정보가 적혀있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사전 신청기간에는 수강신청과목을 꾸러미에 담거나 뺄 수 있지만 본 신청 기간에는 장바구니에 담겨있는 과목에 대해 신청만 가능하다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">수강신청에 관한 전반적인 안내, 변동사항을 공지하는 게시판으로 해당내용을 클릭하면 학생은 상세페이지를 팝업으로 확인 할 수 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록금고지서확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세내역 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인정보찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포털소식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수업관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학사관리시스템</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공통화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교공지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상담예약신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증명서발급메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HEADER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남은시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인일정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생 메인화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출결관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과제관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시험관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의계획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FOOTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>교수인원을 학과별로 구분하여 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학과공지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강꾸러미</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록금분할신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학적에 관한 증명서 발급이나 학점과 관련된 자주묻는 질문을 게시판에서 확인 할 수 있고 해당 글을 클릭하면 해당질문에 대한 답변을 바로 확인 할 수 있다. 원하는 질문을 카테고리별(하이포털,졸업유보,전공배정 등)로 제목이나 내용으로 검색해 볼 수 있고 체크박스로 항목을 체크해서 확인 할 수도 있다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1137,7 +1137,7 @@
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="63">
+  <x:cellXfs count="61">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1222,6 +1222,24 @@
     <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -1268,64 +1286,40 @@
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="93">
@@ -1671,7 +1665,7 @@
     </xdr:to>
     <xdr:sp fLocksText="1" fPublished="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="직사각형 0"/>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1774,56 +1768,17 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvPr id="3" name="그룹 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="0">
           <a:off x="0" y="0"/>
           <a:ext cx="914400" cy="914400"/>
-          <a:chOff x="30" y="-1208"/>
+          <a:chOff x="30" y="-375"/>
           <a:chExt cx="432" cy="288"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp fLocksText="1" fPublished="0">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="직선 연결선 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="30" y="-1208"/>
-            <a:ext cx="432" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng">
-            <a:solidFill>
-              <a:srgbClr val="c0c0c0"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="20000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
       <xdr:sp fLocksText="1" fPublished="0">
         <xdr:nvSpPr>
           <xdr:cNvPr id="4" name="직선 연결선 3"/>
@@ -1831,7 +1786,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="31" y="-1029"/>
+            <a:off x="30" y="-375"/>
             <a:ext cx="432" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1870,7 +1825,46 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="31" y="-919"/>
+            <a:off x="31" y="-196"/>
+            <a:ext cx="432" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="c0c0c0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="20000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp fLocksText="1" fPublished="0">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="직선 연결선 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="31" y="-86"/>
             <a:ext cx="432" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1920,20 +1914,20 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="그룹 5"/>
+        <xdr:cNvPr id="7" name="그룹 6"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="0">
           <a:off x="0" y="0"/>
           <a:ext cx="914400" cy="914400"/>
-          <a:chOff x="27" y="-702"/>
-          <a:chExt cx="1406" cy="193"/>
+          <a:chOff x="27" y="130"/>
+          <a:chExt cx="1406" cy="192"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic macro="" fPublished="0">
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="그림 6"/>
+          <xdr:cNvPr id="8" name="그림 7"/>
           <xdr:cNvPicPr/>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
@@ -1945,7 +1939,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="27" y="-702"/>
+            <a:off x="27" y="130"/>
             <a:ext cx="1406" cy="192"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1961,67 +1955,28 @@
       </xdr:pic>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="8" name="그룹 7"/>
+          <xdr:cNvPr id="9" name="그룹 8"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm rot="0">
-            <a:off x="96" y="-666"/>
-            <a:ext cx="438" cy="96"/>
-            <a:chOff x="26" y="-1343"/>
+            <a:off x="95" y="167"/>
+            <a:ext cx="438" cy="95"/>
+            <a:chOff x="26" y="-509"/>
             <a:chExt cx="0" cy="0"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="직사각형 8"/>
+            <xdr:cNvPr id="10" name="직사각형 9"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:sp>
-        <xdr:sp fLocksText="1" fPublished="0">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="직선 연결선 9"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="26" y="-1343"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
@@ -2057,7 +2012,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -2096,7 +2051,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="line">
@@ -2130,12 +2085,51 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="직사각형 12"/>
+            <xdr:cNvPr id="13" name="직선 연결선 12"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="20000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:sp>
+        <xdr:sp fLocksText="1" fPublished="0">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="직사각형 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2183,12 +2177,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="직사각형 13"/>
+            <xdr:cNvPr id="15" name="직사각형 14"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2236,12 +2230,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="직사각형 14"/>
+            <xdr:cNvPr id="16" name="직사각형 15"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2289,12 +2283,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="직사각형 15"/>
+            <xdr:cNvPr id="17" name="직사각형 16"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2342,12 +2336,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="직사각형 16"/>
+            <xdr:cNvPr id="18" name="직사각형 17"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2395,12 +2389,12 @@
         </xdr:sp>
         <xdr:sp fLocksText="1" fPublished="0">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="직사각형 17"/>
+            <xdr:cNvPr id="19" name="직사각형 18"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="26" y="-1343"/>
+              <a:off x="26" y="-509"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2449,12 +2443,12 @@
       </xdr:grpSp>
       <xdr:sp fLocksText="1" fPublished="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="직사각형 18"/>
+          <xdr:cNvPr id="20" name="직사각형 19"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="820" y="-548"/>
+            <a:off x="818" y="286"/>
             <a:ext cx="589" cy="30"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2525,11 +2519,11 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="20.65">
-      <x:c r="A1" s="30"/>
-      <x:c r="B1" s="30"/>
-      <x:c r="C1" s="30"/>
-      <x:c r="D1" s="30"/>
-      <x:c r="E1" s="30"/>
+      <x:c r="A1" s="36"/>
+      <x:c r="B1" s="36"/>
+      <x:c r="C1" s="36"/>
+      <x:c r="D1" s="36"/>
+      <x:c r="E1" s="36"/>
       <x:c r="F1" s="13"/>
       <x:c r="G1" s="13"/>
       <x:c r="H1" s="13"/>
@@ -2550,10 +2544,10 @@
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="15"/>
-      <x:c r="B3" s="28"/>
-      <x:c r="C3" s="28"/>
-      <x:c r="D3" s="29"/>
-      <x:c r="E3" s="29"/>
+      <x:c r="B3" s="34"/>
+      <x:c r="C3" s="34"/>
+      <x:c r="D3" s="35"/>
+      <x:c r="E3" s="35"/>
       <x:c r="F3" s="16"/>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -2562,10 +2556,10 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="15"/>
-      <x:c r="B4" s="28"/>
-      <x:c r="C4" s="28"/>
-      <x:c r="D4" s="29"/>
-      <x:c r="E4" s="29"/>
+      <x:c r="B4" s="34"/>
+      <x:c r="C4" s="34"/>
+      <x:c r="D4" s="35"/>
+      <x:c r="E4" s="35"/>
       <x:c r="F4" s="16"/>
       <x:c r="G4" s="16"/>
       <x:c r="H4" s="16"/>
@@ -2574,10 +2568,10 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="15"/>
-      <x:c r="B5" s="28"/>
-      <x:c r="C5" s="28"/>
-      <x:c r="D5" s="29"/>
-      <x:c r="E5" s="29"/>
+      <x:c r="B5" s="34"/>
+      <x:c r="C5" s="34"/>
+      <x:c r="D5" s="35"/>
+      <x:c r="E5" s="35"/>
       <x:c r="F5" s="16"/>
       <x:c r="G5" s="16"/>
       <x:c r="H5" s="16"/>
@@ -2586,10 +2580,10 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="15"/>
-      <x:c r="B6" s="28"/>
-      <x:c r="C6" s="28"/>
-      <x:c r="D6" s="29"/>
-      <x:c r="E6" s="29"/>
+      <x:c r="B6" s="34"/>
+      <x:c r="C6" s="34"/>
+      <x:c r="D6" s="35"/>
+      <x:c r="E6" s="35"/>
       <x:c r="F6" s="16"/>
       <x:c r="G6" s="16"/>
       <x:c r="H6" s="16"/>
@@ -2598,10 +2592,10 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="15"/>
-      <x:c r="B7" s="28"/>
-      <x:c r="C7" s="28"/>
-      <x:c r="D7" s="29"/>
-      <x:c r="E7" s="29"/>
+      <x:c r="B7" s="34"/>
+      <x:c r="C7" s="34"/>
+      <x:c r="D7" s="35"/>
+      <x:c r="E7" s="35"/>
       <x:c r="F7" s="16"/>
       <x:c r="G7" s="16"/>
       <x:c r="H7" s="16"/>
@@ -2610,10 +2604,10 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="15"/>
-      <x:c r="B8" s="28"/>
-      <x:c r="C8" s="28"/>
-      <x:c r="D8" s="29"/>
-      <x:c r="E8" s="29"/>
+      <x:c r="B8" s="34"/>
+      <x:c r="C8" s="34"/>
+      <x:c r="D8" s="35"/>
+      <x:c r="E8" s="35"/>
       <x:c r="F8" s="16"/>
       <x:c r="G8" s="16"/>
       <x:c r="H8" s="16"/>
@@ -2622,10 +2616,10 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="15"/>
-      <x:c r="B9" s="28"/>
-      <x:c r="C9" s="28"/>
-      <x:c r="D9" s="29"/>
-      <x:c r="E9" s="29"/>
+      <x:c r="B9" s="34"/>
+      <x:c r="C9" s="34"/>
+      <x:c r="D9" s="35"/>
+      <x:c r="E9" s="35"/>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="16"/>
       <x:c r="H9" s="16"/>
@@ -2634,10 +2628,10 @@
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="15"/>
-      <x:c r="B10" s="28"/>
-      <x:c r="C10" s="28"/>
-      <x:c r="D10" s="29"/>
-      <x:c r="E10" s="29"/>
+      <x:c r="B10" s="34"/>
+      <x:c r="C10" s="34"/>
+      <x:c r="D10" s="35"/>
+      <x:c r="E10" s="35"/>
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="16"/>
       <x:c r="H10" s="16"/>
@@ -2694,10 +2688,10 @@
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="15"/>
-      <x:c r="B15" s="28"/>
-      <x:c r="C15" s="28"/>
-      <x:c r="D15" s="29"/>
-      <x:c r="E15" s="29"/>
+      <x:c r="B15" s="34"/>
+      <x:c r="C15" s="34"/>
+      <x:c r="D15" s="35"/>
+      <x:c r="E15" s="35"/>
       <x:c r="F15" s="16"/>
       <x:c r="G15" s="16"/>
       <x:c r="H15" s="16"/>
@@ -2706,10 +2700,10 @@
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="15"/>
-      <x:c r="B16" s="28"/>
-      <x:c r="C16" s="28"/>
-      <x:c r="D16" s="29"/>
-      <x:c r="E16" s="29"/>
+      <x:c r="B16" s="34"/>
+      <x:c r="C16" s="34"/>
+      <x:c r="D16" s="35"/>
+      <x:c r="E16" s="35"/>
       <x:c r="F16" s="16"/>
       <x:c r="G16" s="16"/>
       <x:c r="H16" s="16"/>
@@ -2718,10 +2712,10 @@
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="15"/>
-      <x:c r="B17" s="28"/>
-      <x:c r="C17" s="28"/>
-      <x:c r="D17" s="29"/>
-      <x:c r="E17" s="29"/>
+      <x:c r="B17" s="34"/>
+      <x:c r="C17" s="34"/>
+      <x:c r="D17" s="35"/>
+      <x:c r="E17" s="35"/>
       <x:c r="F17" s="16"/>
       <x:c r="G17" s="16"/>
       <x:c r="H17" s="16"/>
@@ -2730,10 +2724,10 @@
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="15"/>
-      <x:c r="B18" s="28"/>
-      <x:c r="C18" s="28"/>
-      <x:c r="D18" s="29"/>
-      <x:c r="E18" s="29"/>
+      <x:c r="B18" s="34"/>
+      <x:c r="C18" s="34"/>
+      <x:c r="D18" s="35"/>
+      <x:c r="E18" s="35"/>
       <x:c r="F18" s="16"/>
       <x:c r="G18" s="16"/>
       <x:c r="H18" s="16"/>
@@ -2742,10 +2736,10 @@
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="15"/>
-      <x:c r="B19" s="28"/>
-      <x:c r="C19" s="28"/>
-      <x:c r="D19" s="29"/>
-      <x:c r="E19" s="29"/>
+      <x:c r="B19" s="34"/>
+      <x:c r="C19" s="34"/>
+      <x:c r="D19" s="35"/>
+      <x:c r="E19" s="35"/>
       <x:c r="F19" s="16"/>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="16"/>
@@ -2754,10 +2748,10 @@
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="15"/>
-      <x:c r="B20" s="28"/>
-      <x:c r="C20" s="28"/>
-      <x:c r="D20" s="29"/>
-      <x:c r="E20" s="29"/>
+      <x:c r="B20" s="34"/>
+      <x:c r="C20" s="34"/>
+      <x:c r="D20" s="35"/>
+      <x:c r="E20" s="35"/>
       <x:c r="F20" s="16"/>
       <x:c r="G20" s="16"/>
       <x:c r="H20" s="16"/>
@@ -2766,10 +2760,10 @@
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="15"/>
-      <x:c r="B21" s="28"/>
-      <x:c r="C21" s="28"/>
-      <x:c r="D21" s="29"/>
-      <x:c r="E21" s="29"/>
+      <x:c r="B21" s="34"/>
+      <x:c r="C21" s="34"/>
+      <x:c r="D21" s="35"/>
+      <x:c r="E21" s="35"/>
       <x:c r="F21" s="16"/>
       <x:c r="G21" s="16"/>
       <x:c r="H21" s="16"/>
@@ -2890,138 +2884,138 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="38.25" customHeight="1">
-      <x:c r="A1" s="36" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B1" s="37"/>
-      <x:c r="C1" s="37"/>
-      <x:c r="D1" s="37"/>
-      <x:c r="E1" s="37"/>
-      <x:c r="F1" s="38"/>
+      <x:c r="A1" s="42" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
+      <x:c r="C1" s="43"/>
+      <x:c r="D1" s="43"/>
+      <x:c r="E1" s="43"/>
+      <x:c r="F1" s="44"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="27" customHeight="1">
-      <x:c r="A2" s="39" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B2" s="40"/>
-      <x:c r="C2" s="33" t="s">
+      <x:c r="A2" s="45" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D2" s="34"/>
-      <x:c r="E2" s="34"/>
-      <x:c r="F2" s="35"/>
+      <x:c r="B2" s="46"/>
+      <x:c r="C2" s="39" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="27" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D3" s="4"/>
       <x:c r="E3" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A4" s="6" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C4" s="41" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D4" s="42"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="47" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D4" s="48"/>
       <x:c r="E4" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F4" s="7"/>
     </x:row>
     <x:row r="5" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A5" s="6" t="s">
-        <x:v>103</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C5" s="41" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D5" s="42"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C5" s="47" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D5" s="48"/>
       <x:c r="E5" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F5" s="7"/>
     </x:row>
     <x:row r="6" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A6" s="6" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B6" s="6" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C6" s="41" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D6" s="42"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="47" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D6" s="48"/>
       <x:c r="E6" s="7" t="s">
-        <x:v>95</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="7"/>
     </x:row>
     <x:row r="7" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A7" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C7" s="31" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D7" s="32"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="37" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D7" s="38"/>
       <x:c r="E7" s="8" t="s">
-        <x:v>102</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
     <x:row r="8" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A8" s="8" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C8" s="31" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D8" s="32"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="37" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D8" s="38"/>
       <x:c r="E8" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F8" s="9"/>
     </x:row>
     <x:row r="9" spans="1:6" ht="29.25" customHeight="1">
       <x:c r="A9" s="8" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C9" s="31" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D9" s="32"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="37" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="38"/>
       <x:c r="E9" s="8" t="s">
-        <x:v>78</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F9" s="9"/>
     </x:row>
@@ -3206,8 +3200,8 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="A1:I67"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="R47" activeCellId="0" sqref="R47:R47"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <x:selection activeCell="J16" activeCellId="0" sqref="J1:J1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.4"/>
@@ -3222,1372 +3216,1370 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" ht="39.95" customHeight="1">
-      <x:c r="A1" s="53" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B1" s="53"/>
-      <x:c r="C1" s="53"/>
-      <x:c r="D1" s="53"/>
-      <x:c r="E1" s="53"/>
-      <x:c r="F1" s="53"/>
-      <x:c r="G1" s="53"/>
-      <x:c r="H1" s="53"/>
-      <x:c r="I1" s="53"/>
+      <x:c r="A1" s="58" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B1" s="58"/>
+      <x:c r="C1" s="58"/>
+      <x:c r="D1" s="58"/>
+      <x:c r="E1" s="58"/>
+      <x:c r="F1" s="58"/>
+      <x:c r="G1" s="58"/>
+      <x:c r="H1" s="58"/>
+      <x:c r="I1" s="58"/>
     </x:row>
     <x:row r="2" spans="1:9" ht="39.95" customHeight="1">
-      <x:c r="A2" s="54" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B2" s="54"/>
-      <x:c r="C2" s="55" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D2" s="55"/>
-      <x:c r="E2" s="55"/>
-      <x:c r="F2" s="56" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G2" s="57" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H2" s="58"/>
-      <x:c r="I2" s="59"/>
+      <x:c r="A2" s="60" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B2" s="60"/>
+      <x:c r="C2" s="59" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D2" s="59"/>
+      <x:c r="E2" s="59"/>
+      <x:c r="F2" s="31" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G2" s="55" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="H2" s="56"/>
+      <x:c r="I2" s="57"/>
     </x:row>
     <x:row r="3" spans="1:9" ht="39.95" customHeight="1">
-      <x:c r="A3" s="56" t="s">
+      <x:c r="A3" s="31" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B3" s="31" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C3" s="31" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D3" s="31" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E3" s="31" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="31" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G3" s="31" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H3" s="31" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B3" s="56" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C3" s="56" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D3" s="56" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="E3" s="56" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F3" s="56" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G3" s="56" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H3" s="56" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I3" s="56" t="s">
-        <x:v>72</x:v>
+      <x:c r="I3" s="31" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9" ht="35.6">
-      <x:c r="A4" s="46" t="s">
-        <x:v>140</x:v>
+      <x:c r="A4" s="52" t="s">
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B4" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C4" s="20"/>
       <x:c r="D4" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E4" s="27" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G4" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H4" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I4" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9" ht="35.6">
-      <x:c r="A5" s="47"/>
-      <x:c r="B5" s="46" t="s">
-        <x:v>122</x:v>
+      <x:c r="A5" s="54"/>
+      <x:c r="B5" s="52" t="s">
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C5" s="20"/>
       <x:c r="D5" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E5" s="27" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G5" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I5" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9" ht="35.6">
-      <x:c r="A6" s="47"/>
-      <x:c r="B6" s="48"/>
+      <x:c r="A6" s="54"/>
+      <x:c r="B6" s="53"/>
       <x:c r="C6" s="20"/>
       <x:c r="D6" s="20" t="s">
-        <x:v>148</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E6" s="27" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F6" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G6" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H6" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I6" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9" ht="35.6">
-      <x:c r="A7" s="47"/>
-      <x:c r="B7" s="46" t="s">
-        <x:v>64</x:v>
+      <x:c r="A7" s="54"/>
+      <x:c r="B7" s="52" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="20"/>
       <x:c r="D7" s="20" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E7" s="27" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F7" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G7" s="20"/>
       <x:c r="H7" s="20"/>
       <x:c r="I7" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" ht="35.6">
-      <x:c r="A8" s="48"/>
-      <x:c r="B8" s="48"/>
+      <x:c r="A8" s="53"/>
+      <x:c r="B8" s="53"/>
       <x:c r="C8" s="20"/>
       <x:c r="D8" s="20" t="s">
-        <x:v>138</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E8" s="27" t="s">
-        <x:v>91</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F8" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G8" s="20"/>
       <x:c r="H8" s="20"/>
       <x:c r="I8" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9" ht="17.8">
-      <x:c r="A9" s="43" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B9" s="43" t="s">
-        <x:v>136</x:v>
+      <x:c r="A9" s="51" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B9" s="51" t="s">
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C9" s="20"/>
       <x:c r="D9" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E9" s="27" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G9" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H9" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I9" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9" ht="35.6">
-      <x:c r="A10" s="43"/>
-      <x:c r="B10" s="43"/>
+      <x:c r="A10" s="51"/>
+      <x:c r="B10" s="51"/>
       <x:c r="C10" s="20"/>
       <x:c r="D10" s="20" t="s">
-        <x:v>137</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E10" s="27" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F10" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G10" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H10" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I10" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9" ht="17.8">
-      <x:c r="A11" s="43"/>
-      <x:c r="B11" s="43"/>
+      <x:c r="A11" s="51"/>
+      <x:c r="B11" s="51"/>
       <x:c r="C11" s="20"/>
       <x:c r="D11" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E11" s="27" t="s">
-        <x:v>100</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F11" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G11" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H11" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I11" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9" ht="17.8">
-      <x:c r="A12" s="43"/>
-      <x:c r="B12" s="43"/>
+      <x:c r="A12" s="51"/>
+      <x:c r="B12" s="51"/>
       <x:c r="C12" s="20"/>
       <x:c r="D12" s="20" t="s">
-        <x:v>135</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E12" s="27" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F12" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I12" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" ht="17.8">
-      <x:c r="A13" s="43"/>
+      <x:c r="A13" s="51"/>
       <x:c r="B13" s="20" t="s">
-        <x:v>147</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C13" s="20"/>
       <x:c r="D13" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E13" s="27" t="s">
-        <x:v>113</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F13" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G13" s="20"/>
       <x:c r="H13" s="20"/>
       <x:c r="I13" s="20"/>
     </x:row>
     <x:row r="14" spans="1:9" ht="35.6">
-      <x:c r="A14" s="43"/>
-      <x:c r="B14" s="43" t="s">
-        <x:v>64</x:v>
+      <x:c r="A14" s="51"/>
+      <x:c r="B14" s="51" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C14" s="24"/>
       <x:c r="D14" s="20" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E14" s="27" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F14" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G14" s="20"/>
       <x:c r="H14" s="20"/>
       <x:c r="I14" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9" ht="35.6">
-      <x:c r="A15" s="43"/>
-      <x:c r="B15" s="43"/>
+      <x:c r="A15" s="51"/>
+      <x:c r="B15" s="51"/>
       <x:c r="C15" s="24"/>
       <x:c r="D15" s="20" t="s">
-        <x:v>130</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E15" s="27" t="s">
-        <x:v>91</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F15" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G15" s="20"/>
       <x:c r="H15" s="20"/>
       <x:c r="I15" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9" ht="35.6">
-      <x:c r="A16" s="43"/>
-      <x:c r="B16" s="43"/>
+      <x:c r="A16" s="51"/>
+      <x:c r="B16" s="51"/>
       <x:c r="C16" s="24"/>
       <x:c r="D16" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E16" s="27" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G16" s="20"/>
       <x:c r="H16" s="20"/>
       <x:c r="I16" s="20" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9" ht="17.8">
+      <x:c r="A17" s="52" t="s">
         <x:v>59</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:9" ht="17.8">
-      <x:c r="A17" s="46" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B17" s="43" t="s">
-        <x:v>118</x:v>
+      <x:c r="B17" s="51" t="s">
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C17" s="20"/>
       <x:c r="D17" s="20" t="s">
-        <x:v>120</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E17" s="27" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F17" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G17" s="24"/>
       <x:c r="H17" s="24"/>
       <x:c r="I17" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9" ht="17.8">
-      <x:c r="A18" s="47"/>
-      <x:c r="B18" s="43"/>
+      <x:c r="A18" s="54"/>
+      <x:c r="B18" s="51"/>
       <x:c r="C18" s="20"/>
       <x:c r="D18" s="20" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E18" s="27" t="s">
-        <x:v>99</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F18" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G18" s="24"/>
       <x:c r="H18" s="24"/>
       <x:c r="I18" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9" ht="17.8">
-      <x:c r="A19" s="47"/>
-      <x:c r="B19" s="43"/>
+      <x:c r="A19" s="54"/>
+      <x:c r="B19" s="51"/>
       <x:c r="C19" s="20"/>
       <x:c r="D19" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E19" s="27" t="s">
-        <x:v>156</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="24"/>
       <x:c r="H19" s="24"/>
       <x:c r="I19" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9" ht="17.8">
-      <x:c r="A20" s="47"/>
-      <x:c r="B20" s="43"/>
+      <x:c r="A20" s="54"/>
+      <x:c r="B20" s="51"/>
       <x:c r="C20" s="24"/>
       <x:c r="D20" s="20" t="s">
-        <x:v>131</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E20" s="27" t="s">
-        <x:v>34</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F20" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G20" s="24"/>
       <x:c r="H20" s="24"/>
       <x:c r="I20" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9" ht="17.8">
-      <x:c r="A21" s="47"/>
-      <x:c r="B21" s="43"/>
+      <x:c r="A21" s="54"/>
+      <x:c r="B21" s="51"/>
       <x:c r="C21" s="24"/>
       <x:c r="D21" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E21" s="27" t="s">
-        <x:v>33</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F21" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G21" s="24"/>
       <x:c r="H21" s="24"/>
       <x:c r="I21" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9" ht="17.8">
-      <x:c r="A22" s="47"/>
-      <x:c r="B22" s="43"/>
+      <x:c r="A22" s="54"/>
+      <x:c r="B22" s="51"/>
       <x:c r="C22" s="24"/>
       <x:c r="D22" s="20" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E22" s="27" t="s">
-        <x:v>36</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F22" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G22" s="24"/>
       <x:c r="H22" s="24"/>
       <x:c r="I22" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9" ht="17.8">
-      <x:c r="A23" s="47"/>
-      <x:c r="B23" s="43"/>
+      <x:c r="A23" s="54"/>
+      <x:c r="B23" s="51"/>
       <x:c r="C23" s="24"/>
       <x:c r="D23" s="20" t="s">
-        <x:v>81</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E23" s="27" t="s">
-        <x:v>32</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F23" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G23" s="24"/>
       <x:c r="H23" s="24"/>
       <x:c r="I23" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9" ht="17.8">
-      <x:c r="A24" s="47"/>
-      <x:c r="B24" s="46" t="s">
-        <x:v>131</x:v>
+      <x:c r="A24" s="54"/>
+      <x:c r="B24" s="52" t="s">
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C24" s="24"/>
       <x:c r="D24" s="20" t="s">
-        <x:v>149</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E24" s="27" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G24" s="24"/>
       <x:c r="H24" s="24"/>
       <x:c r="I24" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9" ht="35.6">
-      <x:c r="A25" s="47"/>
-      <x:c r="B25" s="48"/>
+      <x:c r="A25" s="54"/>
+      <x:c r="B25" s="53"/>
       <x:c r="C25" s="24"/>
       <x:c r="D25" s="20" t="s">
-        <x:v>154</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E25" s="27" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F25" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G25" s="24"/>
       <x:c r="H25" s="24"/>
       <x:c r="I25" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9" ht="17.8">
-      <x:c r="A26" s="47"/>
-      <x:c r="B26" s="46" t="s">
-        <x:v>51</x:v>
+      <x:c r="A26" s="54"/>
+      <x:c r="B26" s="52" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C26" s="24"/>
       <x:c r="D26" s="20" t="s">
-        <x:v>153</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E26" s="27" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G26" s="24"/>
       <x:c r="H26" s="24"/>
       <x:c r="I26" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9" ht="35.6">
-      <x:c r="A27" s="47"/>
-      <x:c r="B27" s="48"/>
+      <x:c r="A27" s="54"/>
+      <x:c r="B27" s="53"/>
       <x:c r="C27" s="24"/>
       <x:c r="D27" s="20" t="s">
-        <x:v>152</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E27" s="27" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G27" s="24"/>
       <x:c r="H27" s="24"/>
       <x:c r="I27" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9" ht="17.8">
-      <x:c r="A28" s="47"/>
-      <x:c r="B28" s="46" t="s">
-        <x:v>128</x:v>
+      <x:c r="A28" s="54"/>
+      <x:c r="B28" s="52" t="s">
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C28" s="24"/>
       <x:c r="D28" s="20" t="s">
-        <x:v>151</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E28" s="27" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F28" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G28" s="24"/>
       <x:c r="H28" s="24"/>
       <x:c r="I28" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9" ht="35.6">
-      <x:c r="A29" s="48"/>
-      <x:c r="B29" s="48"/>
+      <x:c r="A29" s="53"/>
+      <x:c r="B29" s="53"/>
       <x:c r="C29" s="24"/>
       <x:c r="D29" s="20" t="s">
-        <x:v>150</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E29" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="F29" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G29" s="24"/>
       <x:c r="H29" s="24"/>
       <x:c r="I29" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9" ht="53.4">
-      <x:c r="A30" s="43" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B30" s="43" t="s">
-        <x:v>125</x:v>
+      <x:c r="A30" s="51" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B30" s="51" t="s">
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C30" s="20"/>
       <x:c r="D30" s="20" t="s">
-        <x:v>146</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E30" s="27" t="s">
-        <x:v>87</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F30" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G30" s="24"/>
       <x:c r="H30" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I30" s="24"/>
     </x:row>
     <x:row r="31" spans="1:9" ht="53.4">
-      <x:c r="A31" s="43"/>
-      <x:c r="B31" s="43"/>
+      <x:c r="A31" s="51"/>
+      <x:c r="B31" s="51"/>
       <x:c r="C31" s="20"/>
       <x:c r="D31" s="20" t="s">
-        <x:v>145</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E31" s="27" t="s">
-        <x:v>19</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F31" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G31" s="24"/>
       <x:c r="H31" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I31" s="24"/>
     </x:row>
     <x:row r="32" spans="1:9" ht="53.4">
-      <x:c r="A32" s="43"/>
-      <x:c r="B32" s="43"/>
+      <x:c r="A32" s="51"/>
+      <x:c r="B32" s="51"/>
       <x:c r="C32" s="20"/>
       <x:c r="D32" s="20" t="s">
-        <x:v>144</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="27" t="s">
-        <x:v>26</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F32" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G32" s="24"/>
       <x:c r="H32" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I32" s="24"/>
     </x:row>
     <x:row r="33" spans="1:9" ht="53.4">
-      <x:c r="A33" s="43"/>
-      <x:c r="B33" s="43"/>
+      <x:c r="A33" s="51"/>
+      <x:c r="B33" s="51"/>
       <x:c r="C33" s="20"/>
       <x:c r="D33" s="20" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E33" s="27" t="s">
-        <x:v>16</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F33" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G33" s="24"/>
       <x:c r="H33" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I33" s="24"/>
     </x:row>
     <x:row r="34" spans="1:9" ht="53.4">
-      <x:c r="A34" s="43"/>
-      <x:c r="B34" s="43"/>
+      <x:c r="A34" s="51"/>
+      <x:c r="B34" s="51"/>
       <x:c r="C34" s="20"/>
       <x:c r="D34" s="20" t="s">
-        <x:v>49</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E34" s="27" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F34" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G34" s="24"/>
       <x:c r="H34" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I34" s="24"/>
     </x:row>
     <x:row r="35" spans="1:9" ht="35.6">
-      <x:c r="A35" s="43"/>
-      <x:c r="B35" s="43" t="s">
-        <x:v>51</x:v>
+      <x:c r="A35" s="51"/>
+      <x:c r="B35" s="51" t="s">
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C35" s="20"/>
       <x:c r="D35" s="20" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E35" s="27" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E35" s="27" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="F35" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G35" s="24"/>
       <x:c r="H35" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I35" s="24"/>
     </x:row>
     <x:row r="36" spans="1:9" ht="35.6">
-      <x:c r="A36" s="43"/>
-      <x:c r="B36" s="43"/>
+      <x:c r="A36" s="51"/>
+      <x:c r="B36" s="51"/>
       <x:c r="C36" s="20"/>
       <x:c r="D36" s="20" t="s">
-        <x:v>82</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E36" s="27" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F36" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G36" s="24"/>
       <x:c r="H36" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I36" s="24"/>
     </x:row>
     <x:row r="37" spans="1:9" ht="35.6">
       <x:c r="A37" s="21" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B37" s="44" t="s">
-        <x:v>142</x:v>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B37" s="49" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C37" s="20"/>
-      <x:c r="D37" s="45" t="s">
-        <x:v>120</x:v>
+      <x:c r="D37" s="50" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E37" s="26" t="s">
-        <x:v>85</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F37" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G37" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H37" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I37" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9" ht="53.4">
       <x:c r="A38" s="22"/>
-      <x:c r="B38" s="44"/>
+      <x:c r="B38" s="49"/>
       <x:c r="C38" s="20"/>
-      <x:c r="D38" s="45"/>
+      <x:c r="D38" s="50"/>
       <x:c r="E38" s="27" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F38" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G38" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H38" s="20"/>
       <x:c r="I38" s="20"/>
     </x:row>
     <x:row r="39" spans="1:9" ht="17.8">
       <x:c r="A39" s="22"/>
-      <x:c r="B39" s="44"/>
+      <x:c r="B39" s="49"/>
       <x:c r="C39" s="20"/>
       <x:c r="D39" s="25" t="s">
-        <x:v>141</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E39" s="27" t="s">
-        <x:v>37</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F39" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G39" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H39" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I39" s="20"/>
     </x:row>
     <x:row r="40" spans="1:9" ht="35.6">
       <x:c r="A40" s="22"/>
-      <x:c r="B40" s="44"/>
+      <x:c r="B40" s="49"/>
       <x:c r="C40" s="20"/>
       <x:c r="D40" s="25" t="s">
-        <x:v>139</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E40" s="27" t="s">
-        <x:v>6</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F40" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G40" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H40" s="20"/>
       <x:c r="I40" s="20"/>
     </x:row>
     <x:row r="41" spans="1:9" ht="35.6">
       <x:c r="A41" s="22"/>
-      <x:c r="B41" s="44"/>
+      <x:c r="B41" s="49"/>
       <x:c r="C41" s="20"/>
       <x:c r="D41" s="25" t="s">
-        <x:v>121</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E41" s="27" t="s">
-        <x:v>86</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F41" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G41" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H41" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I41" s="20"/>
     </x:row>
     <x:row r="42" spans="1:9" ht="35.6">
       <x:c r="A42" s="22"/>
-      <x:c r="B42" s="44"/>
+      <x:c r="B42" s="49"/>
       <x:c r="C42" s="20"/>
       <x:c r="D42" s="25" t="s">
-        <x:v>101</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E42" s="27" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F42" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G42" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H42" s="20"/>
       <x:c r="I42" s="20"/>
     </x:row>
     <x:row r="43" spans="1:9" ht="17.8">
       <x:c r="A43" s="22"/>
-      <x:c r="B43" s="44"/>
+      <x:c r="B43" s="49"/>
       <x:c r="C43" s="20"/>
       <x:c r="D43" s="25" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E43" s="27" t="s">
-        <x:v>98</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F43" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G43" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H43" s="20"/>
       <x:c r="I43" s="20"/>
     </x:row>
     <x:row r="44" spans="1:9" ht="71.2">
       <x:c r="A44" s="22"/>
-      <x:c r="B44" s="43" t="s">
-        <x:v>53</x:v>
+      <x:c r="B44" s="51" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C44" s="20"/>
-      <x:c r="D44" s="43" t="s">
-        <x:v>50</x:v>
+      <x:c r="D44" s="51" t="s">
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E44" s="27" t="s">
-        <x:v>112</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F44" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G44" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H44" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I44" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9" ht="53.4">
       <x:c r="A45" s="22"/>
-      <x:c r="B45" s="43"/>
+      <x:c r="B45" s="51"/>
       <x:c r="C45" s="20"/>
-      <x:c r="D45" s="43"/>
+      <x:c r="D45" s="51"/>
       <x:c r="E45" s="27" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F45" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G45" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H45" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I45" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9" ht="35.6">
       <x:c r="A46" s="22"/>
-      <x:c r="B46" s="43"/>
+      <x:c r="B46" s="51"/>
       <x:c r="C46" s="20"/>
-      <x:c r="D46" s="43"/>
+      <x:c r="D46" s="51"/>
       <x:c r="E46" s="27" t="s">
-        <x:v>25</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F46" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G46" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H46" s="20"/>
       <x:c r="I46" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9" ht="53.4">
       <x:c r="A47" s="22"/>
-      <x:c r="B47" s="43"/>
+      <x:c r="B47" s="51"/>
       <x:c r="C47" s="20"/>
-      <x:c r="D47" s="43"/>
+      <x:c r="D47" s="51"/>
       <x:c r="E47" s="27" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F47" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G47" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H47" s="20"/>
       <x:c r="I47" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9" ht="35.6">
       <x:c r="A48" s="22"/>
-      <x:c r="B48" s="43"/>
+      <x:c r="B48" s="51"/>
       <x:c r="C48" s="20"/>
-      <x:c r="D48" s="43" t="s">
-        <x:v>125</x:v>
+      <x:c r="D48" s="51" t="s">
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E48" s="27" t="s">
-        <x:v>7</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F48" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G48" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H48" s="20"/>
       <x:c r="I48" s="20"/>
     </x:row>
     <x:row r="49" spans="1:9" ht="17.8">
       <x:c r="A49" s="22"/>
-      <x:c r="B49" s="43"/>
+      <x:c r="B49" s="51"/>
       <x:c r="C49" s="20"/>
-      <x:c r="D49" s="43"/>
+      <x:c r="D49" s="51"/>
       <x:c r="E49" s="27" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F49" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G49" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H49" s="20"/>
       <x:c r="I49" s="20"/>
     </x:row>
     <x:row r="50" spans="1:9" ht="35.6">
       <x:c r="A50" s="22"/>
-      <x:c r="B50" s="43"/>
+      <x:c r="B50" s="51"/>
       <x:c r="C50" s="20"/>
-      <x:c r="D50" s="43"/>
+      <x:c r="D50" s="51"/>
       <x:c r="E50" s="27" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G50" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H50" s="20"/>
       <x:c r="I50" s="20"/>
     </x:row>
     <x:row r="51" spans="1:9" ht="35.6">
       <x:c r="A51" s="22"/>
-      <x:c r="B51" s="43"/>
+      <x:c r="B51" s="51"/>
       <x:c r="C51" s="20"/>
-      <x:c r="D51" s="43"/>
+      <x:c r="D51" s="51"/>
       <x:c r="E51" s="27" t="s">
-        <x:v>88</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F51" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G51" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H51" s="20"/>
       <x:c r="I51" s="20"/>
     </x:row>
     <x:row r="52" spans="1:9" ht="35.6">
       <x:c r="A52" s="22"/>
-      <x:c r="B52" s="43"/>
+      <x:c r="B52" s="51"/>
       <x:c r="C52" s="20"/>
-      <x:c r="D52" s="43"/>
+      <x:c r="D52" s="51"/>
       <x:c r="E52" s="27" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F52" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G52" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H52" s="20"/>
       <x:c r="I52" s="20"/>
     </x:row>
     <x:row r="53" spans="1:9" ht="17.8">
       <x:c r="A53" s="22"/>
-      <x:c r="B53" s="43"/>
+      <x:c r="B53" s="51"/>
       <x:c r="C53" s="20"/>
       <x:c r="D53" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E53" s="27" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F53" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G53" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H53" s="20"/>
       <x:c r="I53" s="20"/>
     </x:row>
     <x:row r="54" spans="1:9" ht="17.8">
       <x:c r="A54" s="22"/>
-      <x:c r="B54" s="43"/>
+      <x:c r="B54" s="51"/>
       <x:c r="C54" s="25"/>
-      <x:c r="D54" s="43" t="s">
-        <x:v>47</x:v>
+      <x:c r="D54" s="51" t="s">
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E54" s="27" t="s">
-        <x:v>35</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F54" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G54" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H54" s="20"/>
       <x:c r="I54" s="20"/>
     </x:row>
     <x:row r="55" spans="1:9" ht="35.6">
       <x:c r="A55" s="22"/>
-      <x:c r="B55" s="43"/>
+      <x:c r="B55" s="51"/>
       <x:c r="C55" s="20"/>
-      <x:c r="D55" s="43"/>
+      <x:c r="D55" s="51"/>
       <x:c r="E55" s="27" t="s">
-        <x:v>111</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F55" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G55" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H55" s="20"/>
       <x:c r="I55" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9" ht="35.6">
       <x:c r="A56" s="22"/>
-      <x:c r="B56" s="43"/>
+      <x:c r="B56" s="51"/>
       <x:c r="C56" s="20"/>
-      <x:c r="D56" s="43"/>
+      <x:c r="D56" s="51"/>
       <x:c r="E56" s="27" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F56" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G56" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H56" s="20"/>
       <x:c r="I56" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9" ht="35.6">
       <x:c r="A57" s="22"/>
-      <x:c r="B57" s="43" t="s">
-        <x:v>108</x:v>
+      <x:c r="B57" s="51" t="s">
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C57" s="20"/>
       <x:c r="D57" s="20" t="s">
-        <x:v>97</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E57" s="27" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F57" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G57" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H57" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I57" s="20"/>
     </x:row>
     <x:row r="58" spans="1:9" ht="53.4">
       <x:c r="A58" s="22"/>
-      <x:c r="B58" s="43"/>
+      <x:c r="B58" s="51"/>
       <x:c r="C58" s="20"/>
       <x:c r="D58" s="20" t="s">
-        <x:v>132</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E58" s="27" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F58" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G58" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H58" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I58" s="20"/>
     </x:row>
     <x:row r="59" spans="1:9" ht="53.4">
       <x:c r="A59" s="23"/>
       <x:c r="B59" s="20" t="s">
-        <x:v>104</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C59" s="20"/>
       <x:c r="D59" s="20" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E59" s="27" t="s">
-        <x:v>27</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F59" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G59" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H59" s="20"/>
       <x:c r="I59" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9" ht="35.6">
-      <x:c r="A60" s="60"/>
-      <x:c r="B60" s="48" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="C60" s="43"/>
+      <x:c r="A60" s="32"/>
+      <x:c r="B60" s="53" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C60" s="51"/>
       <x:c r="D60" s="20" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E60" s="27" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F60" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G60" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H60" s="51"/>
-      <x:c r="I60" s="51"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H60" s="30"/>
+      <x:c r="I60" s="30"/>
     </x:row>
     <x:row r="61" spans="1:9" ht="53.4">
-      <x:c r="A61" s="60"/>
-      <x:c r="B61" s="48"/>
-      <x:c r="C61" s="43"/>
+      <x:c r="A61" s="32"/>
+      <x:c r="B61" s="53"/>
+      <x:c r="C61" s="51"/>
       <x:c r="D61" s="20" t="s">
-        <x:v>130</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E61" s="27" t="s">
-        <x:v>18</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F61" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G61" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H61" s="51"/>
-      <x:c r="I61" s="51"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H61" s="30"/>
+      <x:c r="I61" s="30"/>
     </x:row>
     <x:row r="62" spans="1:9" ht="53.4">
-      <x:c r="A62" s="60"/>
-      <x:c r="B62" s="48"/>
-      <x:c r="C62" s="43"/>
+      <x:c r="A62" s="32"/>
+      <x:c r="B62" s="53"/>
+      <x:c r="C62" s="51"/>
       <x:c r="D62" s="20" t="s">
-        <x:v>157</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E62" s="27" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F62" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G62" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H62" s="51"/>
-      <x:c r="I62" s="51"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H62" s="30"/>
+      <x:c r="I62" s="30"/>
     </x:row>
     <x:row r="63" spans="1:9" ht="71.2">
-      <x:c r="A63" s="60"/>
-      <x:c r="B63" s="48"/>
-      <x:c r="C63" s="43"/>
+      <x:c r="A63" s="32"/>
+      <x:c r="B63" s="53"/>
+      <x:c r="C63" s="51"/>
       <x:c r="D63" s="20" t="s">
-        <x:v>155</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E63" s="27" t="s">
-        <x:v>162</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F63" s="20" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G63" s="20" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H63" s="51"/>
-      <x:c r="I63" s="51"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H63" s="30"/>
+      <x:c r="I63" s="30"/>
     </x:row>
     <x:row r="64" spans="1:9" ht="53.4">
-      <x:c r="A64" s="60"/>
-      <x:c r="B64" s="43" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="C64" s="43"/>
+      <x:c r="A64" s="32"/>
+      <x:c r="B64" s="51" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C64" s="51"/>
       <x:c r="D64" s="20" t="s">
-        <x:v>116</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E64" s="27" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F64" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G64" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H64" s="20"/>
       <x:c r="I64" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9" ht="35.6">
-      <x:c r="A65" s="60"/>
-      <x:c r="B65" s="43"/>
-      <x:c r="C65" s="43"/>
+      <x:c r="A65" s="32"/>
+      <x:c r="B65" s="51"/>
+      <x:c r="C65" s="51"/>
       <x:c r="D65" s="20" t="s">
-        <x:v>161</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E65" s="27" t="s">
-        <x:v>15</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F65" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G65" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H65" s="20"/>
       <x:c r="I65" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:9" ht="32.75">
-      <x:c r="A66" s="60"/>
-      <x:c r="B66" s="52" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C66" s="62"/>
-      <x:c r="D66" s="49" t="s">
+      <x:c r="A66" s="32"/>
+      <x:c r="B66" s="50" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C66" s="51"/>
+      <x:c r="D66" s="28" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E66" s="29" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F66" s="28" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G66" s="28" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H66" s="28"/>
+      <x:c r="I66" s="28"/>
+    </x:row>
+    <x:row r="67" spans="1:9" ht="32.75">
+      <x:c r="A67" s="33"/>
+      <x:c r="B67" s="50"/>
+      <x:c r="C67" s="51"/>
+      <x:c r="D67" s="28" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E67" s="29" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="E66" s="50" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="F66" s="49" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G66" s="49" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H66" s="49"/>
-      <x:c r="I66" s="49"/>
-    </x:row>
-    <x:row r="67" spans="1:9" ht="32.75">
-      <x:c r="A67" s="61"/>
-      <x:c r="B67" s="52"/>
-      <x:c r="C67" s="62"/>
-      <x:c r="D67" s="49" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="E67" s="50" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="F67" s="49" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G67" s="49" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H67" s="49"/>
-      <x:c r="I67" s="49"/>
-    </x:row>
-    <x:row r="1048575" ht="16.5"/>
-    <x:row r="1048576" ht="16.5"/>
+      <x:c r="F67" s="28" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G67" s="28" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H67" s="28"/>
+      <x:c r="I67" s="28"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="31">
     <x:mergeCell ref="B37:B43"/>
